--- a/results/ortools_results.xlsx
+++ b/results/ortools_results.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,5052 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C1" t="n">
+        <v>129748</v>
+      </c>
+      <c r="D1" t="n">
+        <v>294816</v>
+      </c>
+      <c r="E1" t="n">
+        <v>9.546889999999999</v>
+      </c>
+      <c r="F1" t="n">
+        <v>15.123486</v>
+      </c>
+      <c r="G1" t="n">
+        <v>5.041162</v>
+      </c>
+      <c r="H1" t="n">
+        <v>129712.9999803485</v>
+      </c>
+      <c r="I1" t="n">
+        <v>294780.9999803485</v>
+      </c>
+      <c r="J1" t="n">
+        <v>10.577709</v>
+      </c>
+      <c r="K1" t="n">
+        <v>3.525903</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C2" t="n">
+        <v>78033</v>
+      </c>
+      <c r="D2" t="n">
+        <v>243101</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.512351000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15.01064</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.003546666666667</v>
+      </c>
+      <c r="H2" t="n">
+        <v>77764.99999981806</v>
+      </c>
+      <c r="I2" t="n">
+        <v>242832.999999818</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.550958</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8503193333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C3" t="n">
+        <v>99150</v>
+      </c>
+      <c r="D3" t="n">
+        <v>248736</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.633937</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.013234</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.004411333333334</v>
+      </c>
+      <c r="H3" t="n">
+        <v>98487.00000014034</v>
+      </c>
+      <c r="I3" t="n">
+        <v>248073.0000001403</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.713947</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.571315666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59563</v>
+      </c>
+      <c r="D4" t="n">
+        <v>209149</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.637359</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.010946</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.003648666666667</v>
+      </c>
+      <c r="H4" t="n">
+        <v>59538.00001320956</v>
+      </c>
+      <c r="I4" t="n">
+        <v>209124.0000132096</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.173575</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.391191666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C5" t="n">
+        <v>117348</v>
+      </c>
+      <c r="D5" t="n">
+        <v>253471</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.939467</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15.012526</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.004175333333333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>117215.0000006418</v>
+      </c>
+      <c r="I5" t="n">
+        <v>253338.0000006418</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.280603</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.426867666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71505</v>
+      </c>
+      <c r="D6" t="n">
+        <v>207628</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.926651</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15.010595</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.003531666666666</v>
+      </c>
+      <c r="H6" t="n">
+        <v>71311.99997593317</v>
+      </c>
+      <c r="I6" t="n">
+        <v>207434.9999759332</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.490829</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.163609666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C7" t="n">
+        <v>146286</v>
+      </c>
+      <c r="D7" t="n">
+        <v>279176</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.818339</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.017813</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.005937666666667</v>
+      </c>
+      <c r="H7" t="n">
+        <v>145433.0000004383</v>
+      </c>
+      <c r="I7" t="n">
+        <v>278323.0000004383</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13.590256</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.530085333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C8" t="n">
+        <v>84885</v>
+      </c>
+      <c r="D8" t="n">
+        <v>217775</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.818955</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.010035</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.003345</v>
+      </c>
+      <c r="H8" t="n">
+        <v>83273.00816494974</v>
+      </c>
+      <c r="I8" t="n">
+        <v>216163.0081649497</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.833052</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.277684</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C9" t="n">
+        <v>94760</v>
+      </c>
+      <c r="D9" t="n">
+        <v>197006</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.155998</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.01053</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.005265</v>
+      </c>
+      <c r="H9" t="n">
+        <v>92249.99999969749</v>
+      </c>
+      <c r="I9" t="n">
+        <v>194495.9999996975</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.783972</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.391986</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C10" t="n">
+        <v>56921</v>
+      </c>
+      <c r="D10" t="n">
+        <v>159167</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.156062</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.013105</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.0065525</v>
+      </c>
+      <c r="H10" t="n">
+        <v>56002.00133349218</v>
+      </c>
+      <c r="I10" t="n">
+        <v>158248.0013334922</v>
+      </c>
+      <c r="J10" t="n">
+        <v>56.918093</v>
+      </c>
+      <c r="K10" t="n">
+        <v>28.4590465</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C11" t="n">
+        <v>115552</v>
+      </c>
+      <c r="D11" t="n">
+        <v>203839</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.390206</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.010559</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.0052795</v>
+      </c>
+      <c r="H11" t="n">
+        <v>113313.0000001766</v>
+      </c>
+      <c r="I11" t="n">
+        <v>201600.0000001766</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.94629</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.473145</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69395</v>
+      </c>
+      <c r="D12" t="n">
+        <v>157682</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.391484</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10.010669</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.0053345</v>
+      </c>
+      <c r="H12" t="n">
+        <v>67324.0000043521</v>
+      </c>
+      <c r="I12" t="n">
+        <v>155611.0000043521</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12.787216</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.393608</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>25549</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31644</v>
+      </c>
+      <c r="D13" t="n">
+        <v>57193</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.023544</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.00578</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.001926666666667</v>
+      </c>
+      <c r="H13" t="n">
+        <v>31644.00000002697</v>
+      </c>
+      <c r="I13" t="n">
+        <v>57193.00000002697</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.218838</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.072946</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15497</v>
+      </c>
+      <c r="C14" t="n">
+        <v>26072</v>
+      </c>
+      <c r="D14" t="n">
+        <v>41569</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.010934</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10.003801</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.0019005</v>
+      </c>
+      <c r="H14" t="n">
+        <v>26072.0000000249</v>
+      </c>
+      <c r="I14" t="n">
+        <v>41569.0000000249</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.126382</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.063191</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>24196</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24998</v>
+      </c>
+      <c r="D15" t="n">
+        <v>49194</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.055191</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15.005255</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.001751666666666</v>
+      </c>
+      <c r="H15" t="n">
+        <v>24998.00000001794</v>
+      </c>
+      <c r="I15" t="n">
+        <v>49194.00000001794</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.108393</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.036131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>21739</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21280</v>
+      </c>
+      <c r="D16" t="n">
+        <v>43019</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.031558</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10.003183</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.0015915</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21279.99999994634</v>
+      </c>
+      <c r="I16" t="n">
+        <v>43018.99999994633</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.113851</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0569255</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>266151</v>
+      </c>
+      <c r="C17" t="n">
+        <v>223078</v>
+      </c>
+      <c r="D17" t="n">
+        <v>489229</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.309549</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.023228</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.007742666666666</v>
+      </c>
+      <c r="H17" t="n">
+        <v>217944.0000000002</v>
+      </c>
+      <c r="I17" t="n">
+        <v>484095.0000000002</v>
+      </c>
+      <c r="J17" t="n">
+        <v>153.919932</v>
+      </c>
+      <c r="K17" t="n">
+        <v>51.306644</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>266151</v>
+      </c>
+      <c r="C18" t="n">
+        <v>124509</v>
+      </c>
+      <c r="D18" t="n">
+        <v>390660</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.320954</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15.028803</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.009601</v>
+      </c>
+      <c r="H18" t="n">
+        <v>119780.9987766932</v>
+      </c>
+      <c r="I18" t="n">
+        <v>385931.9987766932</v>
+      </c>
+      <c r="J18" t="n">
+        <v>87.26155</v>
+      </c>
+      <c r="K18" t="n">
+        <v>29.08718333333333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>280370</v>
+      </c>
+      <c r="C19" t="n">
+        <v>172054</v>
+      </c>
+      <c r="D19" t="n">
+        <v>452424</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.784763</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15.02676</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.00892</v>
+      </c>
+      <c r="H19" t="n">
+        <v>169218.000000284</v>
+      </c>
+      <c r="I19" t="n">
+        <v>449588.0000002839</v>
+      </c>
+      <c r="J19" t="n">
+        <v>145.886576</v>
+      </c>
+      <c r="K19" t="n">
+        <v>48.62885866666667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>280370</v>
+      </c>
+      <c r="C20" t="n">
+        <v>98718</v>
+      </c>
+      <c r="D20" t="n">
+        <v>379088</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.795842</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15.025625</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.008541666666667</v>
+      </c>
+      <c r="H20" t="n">
+        <v>94460.00184547825</v>
+      </c>
+      <c r="I20" t="n">
+        <v>374830.0018454783</v>
+      </c>
+      <c r="J20" t="n">
+        <v>51.582575</v>
+      </c>
+      <c r="K20" t="n">
+        <v>17.19419166666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>272528</v>
+      </c>
+      <c r="C21" t="n">
+        <v>208941</v>
+      </c>
+      <c r="D21" t="n">
+        <v>481469</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.977641</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15.035127</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.011709</v>
+      </c>
+      <c r="H21" t="n">
+        <v>201131.9991946442</v>
+      </c>
+      <c r="I21" t="n">
+        <v>473659.9991946442</v>
+      </c>
+      <c r="J21" t="n">
+        <v>31.288082</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10.42936066666667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>272528</v>
+      </c>
+      <c r="C22" t="n">
+        <v>114482</v>
+      </c>
+      <c r="D22" t="n">
+        <v>387010</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.978362</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15.028292</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.009430666666667</v>
+      </c>
+      <c r="H22" t="n">
+        <v>111381.9999754151</v>
+      </c>
+      <c r="I22" t="n">
+        <v>383909.9999754151</v>
+      </c>
+      <c r="J22" t="n">
+        <v>311.286237</v>
+      </c>
+      <c r="K22" t="n">
+        <v>103.762079</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>25442</v>
+      </c>
+      <c r="C23" t="n">
+        <v>66314</v>
+      </c>
+      <c r="D23" t="n">
+        <v>91756</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.016423</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15.007761</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.002587</v>
+      </c>
+      <c r="H23" t="n">
+        <v>67314.00000008903</v>
+      </c>
+      <c r="I23" t="n">
+        <v>92756.00000008903</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.364597</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1215323333333333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>25442</v>
+      </c>
+      <c r="C24" t="n">
+        <v>44174</v>
+      </c>
+      <c r="D24" t="n">
+        <v>69616</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.015994</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15.008883</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.002961</v>
+      </c>
+      <c r="H24" t="n">
+        <v>45174.00000022789</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70616.00000022788</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.142748</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.380916</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C25" t="n">
+        <v>63188</v>
+      </c>
+      <c r="D25" t="n">
+        <v>92507</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.27355</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15.009871</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.003290333333333</v>
+      </c>
+      <c r="H25" t="n">
+        <v>62947</v>
+      </c>
+      <c r="I25" t="n">
+        <v>92266</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.853413</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.284471</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2BIS.dat</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>19785</v>
+      </c>
+      <c r="C26" t="n">
+        <v>65507</v>
+      </c>
+      <c r="D26" t="n">
+        <v>85292</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.109602</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.009296</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.003098666666667</v>
+      </c>
+      <c r="H26" t="n">
+        <v>65507.00000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>85292.00000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.135202</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3784006666666667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C27" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D27" t="n">
+        <v>72328</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.27932</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15.008317</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.002772333333334</v>
+      </c>
+      <c r="H27" t="n">
+        <v>43008.99999994555</v>
+      </c>
+      <c r="I27" t="n">
+        <v>72327.99999994555</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.835739</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.611913</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2bBIS.dat</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>18763</v>
+      </c>
+      <c r="C28" t="n">
+        <v>35088</v>
+      </c>
+      <c r="D28" t="n">
+        <v>53851</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.271267</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15.009113</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.003037666666667</v>
+      </c>
+      <c r="H28" t="n">
+        <v>35087.99999995678</v>
+      </c>
+      <c r="I28" t="n">
+        <v>53850.99999995678</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.931693</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.6438976666666667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>37954</v>
+      </c>
+      <c r="C29" t="n">
+        <v>57337</v>
+      </c>
+      <c r="D29" t="n">
+        <v>95291</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.059544</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.007281</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.002427</v>
+      </c>
+      <c r="H29" t="n">
+        <v>57285.99999989908</v>
+      </c>
+      <c r="I29" t="n">
+        <v>95239.99999989908</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.289506</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.4298353333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>37954</v>
+      </c>
+      <c r="C30" t="n">
+        <v>38762</v>
+      </c>
+      <c r="D30" t="n">
+        <v>76716</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.059044</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15.007073</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.002357666666667</v>
+      </c>
+      <c r="H30" t="n">
+        <v>38762.00000008228</v>
+      </c>
+      <c r="I30" t="n">
+        <v>76716.00000008228</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.384735</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4615783333333334</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C31" t="n">
+        <v>129748</v>
+      </c>
+      <c r="D31" t="n">
+        <v>294816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10.860566</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.06938</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.023126666666667</v>
+      </c>
+      <c r="H31" t="n">
+        <v>129712.9999570253</v>
+      </c>
+      <c r="I31" t="n">
+        <v>294780.9999570253</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.165674</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.721891333333333</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C32" t="n">
+        <v>78033</v>
+      </c>
+      <c r="D32" t="n">
+        <v>243101</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.042083</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15.012327</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.004109000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>77764.99999981806</v>
+      </c>
+      <c r="I32" t="n">
+        <v>242832.999999818</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.181939</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.060646333333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C33" t="n">
+        <v>99330</v>
+      </c>
+      <c r="D33" t="n">
+        <v>248916</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.873519</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15.017546</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.005848666666666</v>
+      </c>
+      <c r="H33" t="n">
+        <v>98487.00000014034</v>
+      </c>
+      <c r="I33" t="n">
+        <v>248073.0000001403</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.542191</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.847397</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C34" t="n">
+        <v>59563</v>
+      </c>
+      <c r="D34" t="n">
+        <v>209149</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.89087</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15.011518</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.003839333333334</v>
+      </c>
+      <c r="H34" t="n">
+        <v>59538.00001320956</v>
+      </c>
+      <c r="I34" t="n">
+        <v>209124.0000132096</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.005717</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.668572333333333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C35" t="n">
+        <v>117348</v>
+      </c>
+      <c r="D35" t="n">
+        <v>253471</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12.64091</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15.010974</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.003658</v>
+      </c>
+      <c r="H35" t="n">
+        <v>117215.0000006418</v>
+      </c>
+      <c r="I35" t="n">
+        <v>253338.0000006418</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.835958</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.611986</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C36" t="n">
+        <v>71505</v>
+      </c>
+      <c r="D36" t="n">
+        <v>207628</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.636496</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15.011566</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.003855333333333</v>
+      </c>
+      <c r="H36" t="n">
+        <v>71311.99997593317</v>
+      </c>
+      <c r="I36" t="n">
+        <v>207434.9999759332</v>
+      </c>
+      <c r="J36" t="n">
+        <v>13.996969</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.665656333333334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C37" t="n">
+        <v>146293</v>
+      </c>
+      <c r="D37" t="n">
+        <v>279183</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.832518</v>
+      </c>
+      <c r="F37" t="n">
+        <v>15.013611</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.004537</v>
+      </c>
+      <c r="H37" t="n">
+        <v>145433.0000004383</v>
+      </c>
+      <c r="I37" t="n">
+        <v>278323.0000004383</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14.092764</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.697588000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C38" t="n">
+        <v>84885</v>
+      </c>
+      <c r="D38" t="n">
+        <v>217775</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.836762</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15.012743</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.004247666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>83273.00816494974</v>
+      </c>
+      <c r="I38" t="n">
+        <v>216163.0081649497</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.095179</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.365059666666667</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C39" t="n">
+        <v>94760</v>
+      </c>
+      <c r="D39" t="n">
+        <v>197006</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.161071</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10.011091</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.0055455</v>
+      </c>
+      <c r="H39" t="n">
+        <v>92249.99999969749</v>
+      </c>
+      <c r="I39" t="n">
+        <v>194495.9999996975</v>
+      </c>
+      <c r="J39" t="n">
+        <v>7.137882</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.568941</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C40" t="n">
+        <v>56921</v>
+      </c>
+      <c r="D40" t="n">
+        <v>159167</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.161464</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10.013361</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.0066805</v>
+      </c>
+      <c r="H40" t="n">
+        <v>56002.00133349218</v>
+      </c>
+      <c r="I40" t="n">
+        <v>158248.0013334922</v>
+      </c>
+      <c r="J40" t="n">
+        <v>59.807431</v>
+      </c>
+      <c r="K40" t="n">
+        <v>29.9037155</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C41" t="n">
+        <v>115552</v>
+      </c>
+      <c r="D41" t="n">
+        <v>203839</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.40341</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10.013658</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.006829</v>
+      </c>
+      <c r="H41" t="n">
+        <v>113313.0000001766</v>
+      </c>
+      <c r="I41" t="n">
+        <v>201600.0000001766</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.132531</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.5662655</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C42" t="n">
+        <v>69395</v>
+      </c>
+      <c r="D42" t="n">
+        <v>157682</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.40094</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10.009712</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.004856</v>
+      </c>
+      <c r="H42" t="n">
+        <v>67324.0000043521</v>
+      </c>
+      <c r="I42" t="n">
+        <v>155611.0000043521</v>
+      </c>
+      <c r="J42" t="n">
+        <v>13.717748</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6.858874</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>25549</v>
+      </c>
+      <c r="C43" t="n">
+        <v>31644</v>
+      </c>
+      <c r="D43" t="n">
+        <v>57193</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.023697</v>
+      </c>
+      <c r="F43" t="n">
+        <v>15.00663</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.00221</v>
+      </c>
+      <c r="H43" t="n">
+        <v>31644.00000002697</v>
+      </c>
+      <c r="I43" t="n">
+        <v>57193.00000002697</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.193802</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.06460066666666667</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>15497</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26072</v>
+      </c>
+      <c r="D44" t="n">
+        <v>41569</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.010866</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10.003309</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.0016545</v>
+      </c>
+      <c r="H44" t="n">
+        <v>26072.0000000249</v>
+      </c>
+      <c r="I44" t="n">
+        <v>41569.0000000249</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.490524</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.245262</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>24196</v>
+      </c>
+      <c r="C45" t="n">
+        <v>24998</v>
+      </c>
+      <c r="D45" t="n">
+        <v>49194</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.059355</v>
+      </c>
+      <c r="F45" t="n">
+        <v>15.005382</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.001794</v>
+      </c>
+      <c r="H45" t="n">
+        <v>24998.00000001794</v>
+      </c>
+      <c r="I45" t="n">
+        <v>49194.00000001794</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.197459</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.06581966666666667</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>21739</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21280</v>
+      </c>
+      <c r="D46" t="n">
+        <v>43019</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.032788</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10.004318</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.002159</v>
+      </c>
+      <c r="H46" t="n">
+        <v>21279.99999994634</v>
+      </c>
+      <c r="I46" t="n">
+        <v>43018.99999994633</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.126488</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.06324399999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>266151</v>
+      </c>
+      <c r="C47" t="n">
+        <v>223078</v>
+      </c>
+      <c r="D47" t="n">
+        <v>489229</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.416515</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15.02788</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.009293333333333</v>
+      </c>
+      <c r="H47" t="n">
+        <v>217944.0000000002</v>
+      </c>
+      <c r="I47" t="n">
+        <v>484095.0000000002</v>
+      </c>
+      <c r="J47" t="n">
+        <v>162.055873</v>
+      </c>
+      <c r="K47" t="n">
+        <v>54.01862433333333</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>266151</v>
+      </c>
+      <c r="C48" t="n">
+        <v>124509</v>
+      </c>
+      <c r="D48" t="n">
+        <v>390660</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.408549</v>
+      </c>
+      <c r="F48" t="n">
+        <v>15.031089</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.010363</v>
+      </c>
+      <c r="H48" t="n">
+        <v>119780.9987766841</v>
+      </c>
+      <c r="I48" t="n">
+        <v>385931.9987766842</v>
+      </c>
+      <c r="J48" t="n">
+        <v>75.415059</v>
+      </c>
+      <c r="K48" t="n">
+        <v>25.138353</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>280370</v>
+      </c>
+      <c r="C49" t="n">
+        <v>172054</v>
+      </c>
+      <c r="D49" t="n">
+        <v>452424</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.83178</v>
+      </c>
+      <c r="F49" t="n">
+        <v>15.028458</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.009486</v>
+      </c>
+      <c r="H49" t="n">
+        <v>169218.000000284</v>
+      </c>
+      <c r="I49" t="n">
+        <v>449588.0000002839</v>
+      </c>
+      <c r="J49" t="n">
+        <v>153.088192</v>
+      </c>
+      <c r="K49" t="n">
+        <v>51.02939733333333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>280370</v>
+      </c>
+      <c r="C50" t="n">
+        <v>98718</v>
+      </c>
+      <c r="D50" t="n">
+        <v>379088</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.823477</v>
+      </c>
+      <c r="F50" t="n">
+        <v>15.025279</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.008426333333333</v>
+      </c>
+      <c r="H50" t="n">
+        <v>94460.00184551341</v>
+      </c>
+      <c r="I50" t="n">
+        <v>374830.0018455134</v>
+      </c>
+      <c r="J50" t="n">
+        <v>51.298202</v>
+      </c>
+      <c r="K50" t="n">
+        <v>17.09940066666667</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>272528</v>
+      </c>
+      <c r="C51" t="n">
+        <v>208941</v>
+      </c>
+      <c r="D51" t="n">
+        <v>481469</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.037089</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15.037726</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.012575333333333</v>
+      </c>
+      <c r="H51" t="n">
+        <v>201131.9991946442</v>
+      </c>
+      <c r="I51" t="n">
+        <v>473659.9991946442</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33.250856</v>
+      </c>
+      <c r="K51" t="n">
+        <v>11.08361866666667</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>272528</v>
+      </c>
+      <c r="C52" t="n">
+        <v>114482</v>
+      </c>
+      <c r="D52" t="n">
+        <v>387010</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.055597</v>
+      </c>
+      <c r="F52" t="n">
+        <v>15.032719</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.010906333333334</v>
+      </c>
+      <c r="H52" t="n">
+        <v>111382.0000388444</v>
+      </c>
+      <c r="I52" t="n">
+        <v>383910.0000388444</v>
+      </c>
+      <c r="J52" t="n">
+        <v>455.732594</v>
+      </c>
+      <c r="K52" t="n">
+        <v>151.9108646666667</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>25442</v>
+      </c>
+      <c r="C53" t="n">
+        <v>66314</v>
+      </c>
+      <c r="D53" t="n">
+        <v>91756</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.013494</v>
+      </c>
+      <c r="F53" t="n">
+        <v>15.009187</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.003062333333333</v>
+      </c>
+      <c r="H53" t="n">
+        <v>67314.00000008903</v>
+      </c>
+      <c r="I53" t="n">
+        <v>92756.00000008903</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.339007</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.1130023333333333</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>25442</v>
+      </c>
+      <c r="C54" t="n">
+        <v>44174</v>
+      </c>
+      <c r="D54" t="n">
+        <v>69616</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.013499</v>
+      </c>
+      <c r="F54" t="n">
+        <v>15.023604</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.007868</v>
+      </c>
+      <c r="H54" t="n">
+        <v>45174.00000022789</v>
+      </c>
+      <c r="I54" t="n">
+        <v>70616.00000022788</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.24834</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.4161133333333333</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C55" t="n">
+        <v>63188</v>
+      </c>
+      <c r="D55" t="n">
+        <v>92507</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.278892</v>
+      </c>
+      <c r="F55" t="n">
+        <v>15.011643</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.003881</v>
+      </c>
+      <c r="H55" t="n">
+        <v>62947</v>
+      </c>
+      <c r="I55" t="n">
+        <v>92266</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.816215</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.2720716666666667</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2BIS.dat</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>19785</v>
+      </c>
+      <c r="C56" t="n">
+        <v>65507</v>
+      </c>
+      <c r="D56" t="n">
+        <v>85292</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.112305</v>
+      </c>
+      <c r="F56" t="n">
+        <v>15.008338</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.002779333333334</v>
+      </c>
+      <c r="H56" t="n">
+        <v>65507.00000000001</v>
+      </c>
+      <c r="I56" t="n">
+        <v>85292.00000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.132627</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.3775423333333334</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C57" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D57" t="n">
+        <v>72328</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.277995</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15.008747</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.002915666666667</v>
+      </c>
+      <c r="H57" t="n">
+        <v>43008.99999994555</v>
+      </c>
+      <c r="I57" t="n">
+        <v>72327.99999994555</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.836874</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.6122913333333333</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2bBIS.dat</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>18763</v>
+      </c>
+      <c r="C58" t="n">
+        <v>35088</v>
+      </c>
+      <c r="D58" t="n">
+        <v>53851</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.272878</v>
+      </c>
+      <c r="F58" t="n">
+        <v>15.009342</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.003114</v>
+      </c>
+      <c r="H58" t="n">
+        <v>35087.99999995678</v>
+      </c>
+      <c r="I58" t="n">
+        <v>53850.99999995678</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.01669</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.67223</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>37954</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57337</v>
+      </c>
+      <c r="D59" t="n">
+        <v>95291</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.059062</v>
+      </c>
+      <c r="F59" t="n">
+        <v>15.009249</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.003083</v>
+      </c>
+      <c r="H59" t="n">
+        <v>57285.99999989908</v>
+      </c>
+      <c r="I59" t="n">
+        <v>95239.99999989908</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.229428</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4098093333333333</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>37954</v>
+      </c>
+      <c r="C60" t="n">
+        <v>38762</v>
+      </c>
+      <c r="D60" t="n">
+        <v>76716</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.058748</v>
+      </c>
+      <c r="F60" t="n">
+        <v>15.00922</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.003073333333333</v>
+      </c>
+      <c r="H60" t="n">
+        <v>38762.00000008228</v>
+      </c>
+      <c r="I60" t="n">
+        <v>76716.00000008228</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.413547</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.137849</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C61" t="n">
+        <v>129748</v>
+      </c>
+      <c r="D61" t="n">
+        <v>294816</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10.955663</v>
+      </c>
+      <c r="F61" t="n">
+        <v>15.102709</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.034236333333333</v>
+      </c>
+      <c r="H61" t="n">
+        <v>129712.9999570253</v>
+      </c>
+      <c r="I61" t="n">
+        <v>294780.9999570253</v>
+      </c>
+      <c r="J61" t="n">
+        <v>11.156812</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.718937333333333</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C62" t="n">
+        <v>78033</v>
+      </c>
+      <c r="D62" t="n">
+        <v>243101</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10.999693</v>
+      </c>
+      <c r="F62" t="n">
+        <v>15.010767</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.003589</v>
+      </c>
+      <c r="H62" t="n">
+        <v>77764.99999981806</v>
+      </c>
+      <c r="I62" t="n">
+        <v>242832.999999818</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.300365</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.100121666666667</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C63" t="n">
+        <v>99157</v>
+      </c>
+      <c r="D63" t="n">
+        <v>248743</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.871402</v>
+      </c>
+      <c r="F63" t="n">
+        <v>15.011532</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.003844</v>
+      </c>
+      <c r="H63" t="n">
+        <v>98487.00000014034</v>
+      </c>
+      <c r="I63" t="n">
+        <v>248073.0000001403</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5.487368</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.829122666666667</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C64" t="n">
+        <v>59563</v>
+      </c>
+      <c r="D64" t="n">
+        <v>209149</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.8718</v>
+      </c>
+      <c r="F64" t="n">
+        <v>15.011301</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.003767</v>
+      </c>
+      <c r="H64" t="n">
+        <v>59538.00001320956</v>
+      </c>
+      <c r="I64" t="n">
+        <v>209124.0000132096</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.024433</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.674811</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C65" t="n">
+        <v>117348</v>
+      </c>
+      <c r="D65" t="n">
+        <v>253471</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12.710278</v>
+      </c>
+      <c r="F65" t="n">
+        <v>15.016111</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.005370333333333</v>
+      </c>
+      <c r="H65" t="n">
+        <v>117215.0000006418</v>
+      </c>
+      <c r="I65" t="n">
+        <v>253338.0000006418</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4.818966</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.606322</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C66" t="n">
+        <v>71505</v>
+      </c>
+      <c r="D66" t="n">
+        <v>207628</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.71002</v>
+      </c>
+      <c r="F66" t="n">
+        <v>15.013315</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.004438333333334</v>
+      </c>
+      <c r="H66" t="n">
+        <v>71311.99997593317</v>
+      </c>
+      <c r="I66" t="n">
+        <v>207434.9999759332</v>
+      </c>
+      <c r="J66" t="n">
+        <v>14.21465</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4.738216666666667</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C67" t="n">
+        <v>146286</v>
+      </c>
+      <c r="D67" t="n">
+        <v>279176</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.838915</v>
+      </c>
+      <c r="F67" t="n">
+        <v>15.015004</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.005001333333333</v>
+      </c>
+      <c r="H67" t="n">
+        <v>145433.0000004383</v>
+      </c>
+      <c r="I67" t="n">
+        <v>278323.0000004383</v>
+      </c>
+      <c r="J67" t="n">
+        <v>14.31623</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4.772076666666666</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C68" t="n">
+        <v>84885</v>
+      </c>
+      <c r="D68" t="n">
+        <v>217775</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.843027</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15.012156</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.004052</v>
+      </c>
+      <c r="H68" t="n">
+        <v>83273.00816494974</v>
+      </c>
+      <c r="I68" t="n">
+        <v>216163.0081649497</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7.162358</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2.387452666666667</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C69" t="n">
+        <v>94760</v>
+      </c>
+      <c r="D69" t="n">
+        <v>197006</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.159408</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10.02367</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.011835</v>
+      </c>
+      <c r="H69" t="n">
+        <v>92249.99999969749</v>
+      </c>
+      <c r="I69" t="n">
+        <v>194495.9999996975</v>
+      </c>
+      <c r="J69" t="n">
+        <v>7.122483</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.5612415</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C70" t="n">
+        <v>56921</v>
+      </c>
+      <c r="D70" t="n">
+        <v>159167</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.158755</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10.012249</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.0061245</v>
+      </c>
+      <c r="H70" t="n">
+        <v>56002.00133349218</v>
+      </c>
+      <c r="I70" t="n">
+        <v>158248.0013334922</v>
+      </c>
+      <c r="J70" t="n">
+        <v>60.31295</v>
+      </c>
+      <c r="K70" t="n">
+        <v>30.156475</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C71" t="n">
+        <v>115552</v>
+      </c>
+      <c r="D71" t="n">
+        <v>203839</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.401785</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10.013893</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.0069465</v>
+      </c>
+      <c r="H71" t="n">
+        <v>113313.0000001766</v>
+      </c>
+      <c r="I71" t="n">
+        <v>201600.0000001766</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.155799</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.5778995</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C72" t="n">
+        <v>69395</v>
+      </c>
+      <c r="D72" t="n">
+        <v>157682</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.405286</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10.010327</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.0051635</v>
+      </c>
+      <c r="H72" t="n">
+        <v>67324.0000043521</v>
+      </c>
+      <c r="I72" t="n">
+        <v>155611.0000043521</v>
+      </c>
+      <c r="J72" t="n">
+        <v>13.509959</v>
+      </c>
+      <c r="K72" t="n">
+        <v>6.7549795</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>25549</v>
+      </c>
+      <c r="C73" t="n">
+        <v>31644</v>
+      </c>
+      <c r="D73" t="n">
+        <v>57193</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.024428</v>
+      </c>
+      <c r="F73" t="n">
+        <v>15.006101</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.002033666666667</v>
+      </c>
+      <c r="H73" t="n">
+        <v>31644.00000002697</v>
+      </c>
+      <c r="I73" t="n">
+        <v>57193.00000002697</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.226299</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.075433</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>15497</v>
+      </c>
+      <c r="C74" t="n">
+        <v>26072</v>
+      </c>
+      <c r="D74" t="n">
+        <v>41569</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.010835</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10.0043</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.00215</v>
+      </c>
+      <c r="H74" t="n">
+        <v>26072.0000000249</v>
+      </c>
+      <c r="I74" t="n">
+        <v>41569.0000000249</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.118151</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0590755</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>24196</v>
+      </c>
+      <c r="C75" t="n">
+        <v>24998</v>
+      </c>
+      <c r="D75" t="n">
+        <v>49194</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.057871</v>
+      </c>
+      <c r="F75" t="n">
+        <v>15.005639</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.001879666666667</v>
+      </c>
+      <c r="H75" t="n">
+        <v>24998.00000001794</v>
+      </c>
+      <c r="I75" t="n">
+        <v>49194.00000001794</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.156738</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.05224599999999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>21739</v>
+      </c>
+      <c r="C76" t="n">
+        <v>21280</v>
+      </c>
+      <c r="D76" t="n">
+        <v>43019</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.034312</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10.004024</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.002012</v>
+      </c>
+      <c r="H76" t="n">
+        <v>21279.99999994634</v>
+      </c>
+      <c r="I76" t="n">
+        <v>43018.99999994633</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.126291</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.06314549999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>266151</v>
+      </c>
+      <c r="C77" t="n">
+        <v>223078</v>
+      </c>
+      <c r="D77" t="n">
+        <v>489229</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.388428</v>
+      </c>
+      <c r="F77" t="n">
+        <v>15.02909</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.009696666666667</v>
+      </c>
+      <c r="H77" t="n">
+        <v>217944.0000000002</v>
+      </c>
+      <c r="I77" t="n">
+        <v>484095.0000000002</v>
+      </c>
+      <c r="J77" t="n">
+        <v>159.899392</v>
+      </c>
+      <c r="K77" t="n">
+        <v>53.29979733333334</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>266151</v>
+      </c>
+      <c r="C78" t="n">
+        <v>124509</v>
+      </c>
+      <c r="D78" t="n">
+        <v>390660</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.378649</v>
+      </c>
+      <c r="F78" t="n">
+        <v>15.025394</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.008464666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>119780.9987766742</v>
+      </c>
+      <c r="I78" t="n">
+        <v>385931.9987766742</v>
+      </c>
+      <c r="J78" t="n">
+        <v>82.03998900000001</v>
+      </c>
+      <c r="K78" t="n">
+        <v>27.346663</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>280370</v>
+      </c>
+      <c r="C79" t="n">
+        <v>172054</v>
+      </c>
+      <c r="D79" t="n">
+        <v>452424</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.829699</v>
+      </c>
+      <c r="F79" t="n">
+        <v>15.036763</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.012254333333334</v>
+      </c>
+      <c r="H79" t="n">
+        <v>169218.000000284</v>
+      </c>
+      <c r="I79" t="n">
+        <v>449588.0000002839</v>
+      </c>
+      <c r="J79" t="n">
+        <v>153.321857</v>
+      </c>
+      <c r="K79" t="n">
+        <v>51.10728566666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>280370</v>
+      </c>
+      <c r="C80" t="n">
+        <v>98718</v>
+      </c>
+      <c r="D80" t="n">
+        <v>379088</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.82977</v>
+      </c>
+      <c r="F80" t="n">
+        <v>15.03261</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.01087</v>
+      </c>
+      <c r="H80" t="n">
+        <v>94460.00184548095</v>
+      </c>
+      <c r="I80" t="n">
+        <v>374830.0018454809</v>
+      </c>
+      <c r="J80" t="n">
+        <v>50.019423</v>
+      </c>
+      <c r="K80" t="n">
+        <v>16.673141</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>272528</v>
+      </c>
+      <c r="C81" t="n">
+        <v>208941</v>
+      </c>
+      <c r="D81" t="n">
+        <v>481469</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.057761</v>
+      </c>
+      <c r="F81" t="n">
+        <v>15.029884</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.009961333333333</v>
+      </c>
+      <c r="H81" t="n">
+        <v>201131.9991946442</v>
+      </c>
+      <c r="I81" t="n">
+        <v>473659.9991946442</v>
+      </c>
+      <c r="J81" t="n">
+        <v>33.412412</v>
+      </c>
+      <c r="K81" t="n">
+        <v>11.13747066666667</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>272528</v>
+      </c>
+      <c r="C82" t="n">
+        <v>114482</v>
+      </c>
+      <c r="D82" t="n">
+        <v>387010</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.05325</v>
+      </c>
+      <c r="F82" t="n">
+        <v>15.02832</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.009440000000001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>111381.9972671607</v>
+      </c>
+      <c r="I82" t="n">
+        <v>383909.9972671607</v>
+      </c>
+      <c r="J82" t="n">
+        <v>553.856223</v>
+      </c>
+      <c r="K82" t="n">
+        <v>184.618741</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>25442</v>
+      </c>
+      <c r="C83" t="n">
+        <v>66314</v>
+      </c>
+      <c r="D83" t="n">
+        <v>91756</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.013145</v>
+      </c>
+      <c r="F83" t="n">
+        <v>15.007742</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.002580666666667</v>
+      </c>
+      <c r="H83" t="n">
+        <v>67314.00000008903</v>
+      </c>
+      <c r="I83" t="n">
+        <v>92756.00000008903</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.354747</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.118249</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>25442</v>
+      </c>
+      <c r="C84" t="n">
+        <v>44174</v>
+      </c>
+      <c r="D84" t="n">
+        <v>69616</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.014411</v>
+      </c>
+      <c r="F84" t="n">
+        <v>15.006603</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.002201</v>
+      </c>
+      <c r="H84" t="n">
+        <v>45174.00000022789</v>
+      </c>
+      <c r="I84" t="n">
+        <v>70616.00000022788</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.186055</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3953516666666667</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C85" t="n">
+        <v>63188</v>
+      </c>
+      <c r="D85" t="n">
+        <v>92507</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.271692</v>
+      </c>
+      <c r="F85" t="n">
+        <v>15.010419</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.003473000000001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>62947</v>
+      </c>
+      <c r="I85" t="n">
+        <v>92266</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.772748</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.2575826666666667</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2BIS.dat</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>19785</v>
+      </c>
+      <c r="C86" t="n">
+        <v>65507</v>
+      </c>
+      <c r="D86" t="n">
+        <v>85292</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.109128</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15.007817</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.002605666666667</v>
+      </c>
+      <c r="H86" t="n">
+        <v>65507.00000000001</v>
+      </c>
+      <c r="I86" t="n">
+        <v>85292.00000000001</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.260986</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4203286666666666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C87" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D87" t="n">
+        <v>72328</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.27429</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15.008499</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.002833</v>
+      </c>
+      <c r="H87" t="n">
+        <v>43008.99999994555</v>
+      </c>
+      <c r="I87" t="n">
+        <v>72327.99999994555</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.853683</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.6178943333333333</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2bBIS.dat</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>18763</v>
+      </c>
+      <c r="C88" t="n">
+        <v>35088</v>
+      </c>
+      <c r="D88" t="n">
+        <v>53851</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.274034</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15.008196</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.002732</v>
+      </c>
+      <c r="H88" t="n">
+        <v>35087.99999995678</v>
+      </c>
+      <c r="I88" t="n">
+        <v>53850.99999995678</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.067501</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.689167</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>37954</v>
+      </c>
+      <c r="C89" t="n">
+        <v>57337</v>
+      </c>
+      <c r="D89" t="n">
+        <v>95291</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.058888</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15.007816</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.002605333333333</v>
+      </c>
+      <c r="H89" t="n">
+        <v>57285.99999989908</v>
+      </c>
+      <c r="I89" t="n">
+        <v>95239.99999989908</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.252438</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.4174793333333333</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>37954</v>
+      </c>
+      <c r="C90" t="n">
+        <v>38762</v>
+      </c>
+      <c r="D90" t="n">
+        <v>76716</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.058784</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15.007914</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.002638</v>
+      </c>
+      <c r="H90" t="n">
+        <v>38762.00000008228</v>
+      </c>
+      <c r="I90" t="n">
+        <v>76716.00000008228</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.417548</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.1391826666666666</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C91" t="n">
+        <v>129748</v>
+      </c>
+      <c r="D91" t="n">
+        <v>294816</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10.979411</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15.070189</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.023396333333333</v>
+      </c>
+      <c r="H91" t="n">
+        <v>129712.9999570253</v>
+      </c>
+      <c r="I91" t="n">
+        <v>294780.9999570253</v>
+      </c>
+      <c r="J91" t="n">
+        <v>11.182935</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3.727645</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C92" t="n">
+        <v>78033</v>
+      </c>
+      <c r="D92" t="n">
+        <v>243101</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.017853</v>
+      </c>
+      <c r="F92" t="n">
+        <v>15.991729</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.330576333333333</v>
+      </c>
+      <c r="H92" t="n">
+        <v>77764.99999981806</v>
+      </c>
+      <c r="I92" t="n">
+        <v>242832.999999818</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.641248</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.880416</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C93" t="n">
+        <v>99150</v>
+      </c>
+      <c r="D93" t="n">
+        <v>248736</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.65175</v>
+      </c>
+      <c r="F93" t="n">
+        <v>15.0129</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.0043</v>
+      </c>
+      <c r="H93" t="n">
+        <v>98487.00000014034</v>
+      </c>
+      <c r="I93" t="n">
+        <v>248073.0000001403</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4.81659</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.60553</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C94" t="n">
+        <v>59563</v>
+      </c>
+      <c r="D94" t="n">
+        <v>209149</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.787047</v>
+      </c>
+      <c r="F94" t="n">
+        <v>15.010094</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.003364666666667</v>
+      </c>
+      <c r="H94" t="n">
+        <v>59538.00001320956</v>
+      </c>
+      <c r="I94" t="n">
+        <v>209124.0000132096</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4.25283</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.41761</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C95" t="n">
+        <v>117348</v>
+      </c>
+      <c r="D95" t="n">
+        <v>253471</v>
+      </c>
+      <c r="E95" t="n">
+        <v>11.344021</v>
+      </c>
+      <c r="F95" t="n">
+        <v>15.011118</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5.003706</v>
+      </c>
+      <c r="H95" t="n">
+        <v>117215.0000006418</v>
+      </c>
+      <c r="I95" t="n">
+        <v>253338.0000006418</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4.301218</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.433739333333333</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C96" t="n">
+        <v>71505</v>
+      </c>
+      <c r="D96" t="n">
+        <v>207628</v>
+      </c>
+      <c r="E96" t="n">
+        <v>11.376589</v>
+      </c>
+      <c r="F96" t="n">
+        <v>15.009744</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.003248</v>
+      </c>
+      <c r="H96" t="n">
+        <v>71311.99997593317</v>
+      </c>
+      <c r="I96" t="n">
+        <v>207434.9999759332</v>
+      </c>
+      <c r="J96" t="n">
+        <v>12.429382</v>
+      </c>
+      <c r="K96" t="n">
+        <v>4.143127333333333</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C97" t="n">
+        <v>146286</v>
+      </c>
+      <c r="D97" t="n">
+        <v>279176</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.760765</v>
+      </c>
+      <c r="F97" t="n">
+        <v>15.01021</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5.003403333333334</v>
+      </c>
+      <c r="H97" t="n">
+        <v>145433.0000004383</v>
+      </c>
+      <c r="I97" t="n">
+        <v>278323.0000004383</v>
+      </c>
+      <c r="J97" t="n">
+        <v>12.681572</v>
+      </c>
+      <c r="K97" t="n">
+        <v>4.227190666666666</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C98" t="n">
+        <v>84885</v>
+      </c>
+      <c r="D98" t="n">
+        <v>217775</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.762625</v>
+      </c>
+      <c r="F98" t="n">
+        <v>15.01013</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.003376666666667</v>
+      </c>
+      <c r="H98" t="n">
+        <v>83273.00816494974</v>
+      </c>
+      <c r="I98" t="n">
+        <v>216163.0081649497</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6.289786</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2.096595333333334</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C99" t="n">
+        <v>94760</v>
+      </c>
+      <c r="D99" t="n">
+        <v>197006</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.144532</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10.012498</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5.006249</v>
+      </c>
+      <c r="H99" t="n">
+        <v>92249.99999969749</v>
+      </c>
+      <c r="I99" t="n">
+        <v>194495.9999996975</v>
+      </c>
+      <c r="J99" t="n">
+        <v>6.276285</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3.1381425</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C100" t="n">
+        <v>56921</v>
+      </c>
+      <c r="D100" t="n">
+        <v>159167</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.144542</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10.012212</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.006106</v>
+      </c>
+      <c r="H100" t="n">
+        <v>56002.00133349218</v>
+      </c>
+      <c r="I100" t="n">
+        <v>158248.0013334922</v>
+      </c>
+      <c r="J100" t="n">
+        <v>58.618566</v>
+      </c>
+      <c r="K100" t="n">
+        <v>29.309283</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C101" t="n">
+        <v>115552</v>
+      </c>
+      <c r="D101" t="n">
+        <v>203839</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.396869</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10.011546</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5.005773</v>
+      </c>
+      <c r="H101" t="n">
+        <v>113313.0000001766</v>
+      </c>
+      <c r="I101" t="n">
+        <v>201600.0000001766</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.005667</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.5028335</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C102" t="n">
+        <v>69395</v>
+      </c>
+      <c r="D102" t="n">
+        <v>157682</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.396723</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10.010301</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5.0051505</v>
+      </c>
+      <c r="H102" t="n">
+        <v>67324.0000043521</v>
+      </c>
+      <c r="I102" t="n">
+        <v>155611.0000043521</v>
+      </c>
+      <c r="J102" t="n">
+        <v>13.134855</v>
+      </c>
+      <c r="K102" t="n">
+        <v>6.5674275</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>25549</v>
+      </c>
+      <c r="C103" t="n">
+        <v>31644</v>
+      </c>
+      <c r="D103" t="n">
+        <v>57193</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.024061</v>
+      </c>
+      <c r="F103" t="n">
+        <v>15.005256</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5.001752</v>
+      </c>
+      <c r="H103" t="n">
+        <v>31644.00000002697</v>
+      </c>
+      <c r="I103" t="n">
+        <v>57193.00000002697</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.174382</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.05812733333333334</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>15497</v>
+      </c>
+      <c r="C104" t="n">
+        <v>26072</v>
+      </c>
+      <c r="D104" t="n">
+        <v>41569</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.010971</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10.003621</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5.0018105</v>
+      </c>
+      <c r="H104" t="n">
+        <v>26072.0000000249</v>
+      </c>
+      <c r="I104" t="n">
+        <v>41569.0000000249</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.064583</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.0322915</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>24196</v>
+      </c>
+      <c r="C105" t="n">
+        <v>24998</v>
+      </c>
+      <c r="D105" t="n">
+        <v>49194</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.055463</v>
+      </c>
+      <c r="F105" t="n">
+        <v>15.004782</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5.001594</v>
+      </c>
+      <c r="H105" t="n">
+        <v>24998.00000001794</v>
+      </c>
+      <c r="I105" t="n">
+        <v>49194.00000001794</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.066958</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.02231933333333333</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>21739</v>
+      </c>
+      <c r="C106" t="n">
+        <v>21280</v>
+      </c>
+      <c r="D106" t="n">
+        <v>43019</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.03203</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10.003542</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.001771</v>
+      </c>
+      <c r="H106" t="n">
+        <v>21279.99999994634</v>
+      </c>
+      <c r="I106" t="n">
+        <v>43018.99999994633</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.110232</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.055116</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>266151</v>
+      </c>
+      <c r="C107" t="n">
+        <v>223078</v>
+      </c>
+      <c r="D107" t="n">
+        <v>489229</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.32709</v>
+      </c>
+      <c r="F107" t="n">
+        <v>15.024296</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.008098666666666</v>
+      </c>
+      <c r="H107" t="n">
+        <v>217944.0000000002</v>
+      </c>
+      <c r="I107" t="n">
+        <v>484095.0000000002</v>
+      </c>
+      <c r="J107" t="n">
+        <v>155.29666</v>
+      </c>
+      <c r="K107" t="n">
+        <v>51.76555333333334</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>266151</v>
+      </c>
+      <c r="C108" t="n">
+        <v>124509</v>
+      </c>
+      <c r="D108" t="n">
+        <v>390660</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.340576</v>
+      </c>
+      <c r="F108" t="n">
+        <v>15.024111</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.008037</v>
+      </c>
+      <c r="H108" t="n">
+        <v>119780.9987766842</v>
+      </c>
+      <c r="I108" t="n">
+        <v>385931.9987766842</v>
+      </c>
+      <c r="J108" t="n">
+        <v>68.003973</v>
+      </c>
+      <c r="K108" t="n">
+        <v>22.667991</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>280370</v>
+      </c>
+      <c r="C109" t="n">
+        <v>172054</v>
+      </c>
+      <c r="D109" t="n">
+        <v>452424</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.792786</v>
+      </c>
+      <c r="F109" t="n">
+        <v>15.031371</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.010457</v>
+      </c>
+      <c r="H109" t="n">
+        <v>169218.000000284</v>
+      </c>
+      <c r="I109" t="n">
+        <v>449588.0000002839</v>
+      </c>
+      <c r="J109" t="n">
+        <v>144.778382</v>
+      </c>
+      <c r="K109" t="n">
+        <v>48.25946066666666</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>280370</v>
+      </c>
+      <c r="C110" t="n">
+        <v>98718</v>
+      </c>
+      <c r="D110" t="n">
+        <v>379088</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.777756</v>
+      </c>
+      <c r="F110" t="n">
+        <v>15.027633</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5.009211</v>
+      </c>
+      <c r="H110" t="n">
+        <v>94460.00184547887</v>
+      </c>
+      <c r="I110" t="n">
+        <v>374830.0018454789</v>
+      </c>
+      <c r="J110" t="n">
+        <v>49.552388</v>
+      </c>
+      <c r="K110" t="n">
+        <v>16.51746266666667</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>272528</v>
+      </c>
+      <c r="C111" t="n">
+        <v>208941</v>
+      </c>
+      <c r="D111" t="n">
+        <v>481469</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.986437</v>
+      </c>
+      <c r="F111" t="n">
+        <v>15.031926</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5.010642</v>
+      </c>
+      <c r="H111" t="n">
+        <v>201131.9991946442</v>
+      </c>
+      <c r="I111" t="n">
+        <v>473659.9991946442</v>
+      </c>
+      <c r="J111" t="n">
+        <v>32.479286</v>
+      </c>
+      <c r="K111" t="n">
+        <v>10.82642866666667</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>272528</v>
+      </c>
+      <c r="C112" t="n">
+        <v>114482</v>
+      </c>
+      <c r="D112" t="n">
+        <v>387010</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.992298</v>
+      </c>
+      <c r="F112" t="n">
+        <v>15.026632</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.008877333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>111382.0055205824</v>
+      </c>
+      <c r="I112" t="n">
+        <v>383910.0055205824</v>
+      </c>
+      <c r="J112" t="n">
+        <v>316.938147</v>
+      </c>
+      <c r="K112" t="n">
+        <v>105.646049</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>25442</v>
+      </c>
+      <c r="C113" t="n">
+        <v>66314</v>
+      </c>
+      <c r="D113" t="n">
+        <v>91756</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.01415</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15.00955</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5.003183333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>67314.00000008903</v>
+      </c>
+      <c r="I113" t="n">
+        <v>92756.00000008903</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.373631</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.1245436666666667</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>25442</v>
+      </c>
+      <c r="C114" t="n">
+        <v>44174</v>
+      </c>
+      <c r="D114" t="n">
+        <v>69616</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.014011</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15.007547</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.002515666666667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>45174.00000022789</v>
+      </c>
+      <c r="I114" t="n">
+        <v>70616.00000022788</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.08225</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.36075</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C115" t="n">
+        <v>63188</v>
+      </c>
+      <c r="D115" t="n">
+        <v>92507</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.267934</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15.009204</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.003068</v>
+      </c>
+      <c r="H115" t="n">
+        <v>62947</v>
+      </c>
+      <c r="I115" t="n">
+        <v>92266</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.805841</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.2686136666666667</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2BIS.dat</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>19785</v>
+      </c>
+      <c r="C116" t="n">
+        <v>65507</v>
+      </c>
+      <c r="D116" t="n">
+        <v>85292</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.105836</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15.010554</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.003518000000001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>65507.00000000001</v>
+      </c>
+      <c r="I116" t="n">
+        <v>85292.00000000001</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.08318</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.36106</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C117" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D117" t="n">
+        <v>72328</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.267672</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15.00769</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5.002563333333334</v>
+      </c>
+      <c r="H117" t="n">
+        <v>43008.99999994555</v>
+      </c>
+      <c r="I117" t="n">
+        <v>72327.99999994555</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.698732</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.566244</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2bBIS.dat</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>18763</v>
+      </c>
+      <c r="C118" t="n">
+        <v>35088</v>
+      </c>
+      <c r="D118" t="n">
+        <v>53851</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.266092</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15.007329</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5.002443</v>
+      </c>
+      <c r="H118" t="n">
+        <v>35087.99999995678</v>
+      </c>
+      <c r="I118" t="n">
+        <v>53850.99999995678</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.793204</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.5977346666666666</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>37954</v>
+      </c>
+      <c r="C119" t="n">
+        <v>57337</v>
+      </c>
+      <c r="D119" t="n">
+        <v>95291</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.057054</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15.007957</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5.002652333333333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>57285.99999989908</v>
+      </c>
+      <c r="I119" t="n">
+        <v>95239.99999989908</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.241264</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.4137546666666667</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>37954</v>
+      </c>
+      <c r="C120" t="n">
+        <v>38762</v>
+      </c>
+      <c r="D120" t="n">
+        <v>76716</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.056364</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15.009094</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.003031333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>38762.00000008228</v>
+      </c>
+      <c r="I120" t="n">
+        <v>76716.00000008228</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.373275</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.124425</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C121" t="n">
+        <v>129748</v>
+      </c>
+      <c r="D121" t="n">
+        <v>294816</v>
+      </c>
+      <c r="E121" t="n">
+        <v>10.471229</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15.094214</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5.031404666666666</v>
+      </c>
+      <c r="H121" t="n">
+        <v>129712.9999570253</v>
+      </c>
+      <c r="I121" t="n">
+        <v>294780.9999570253</v>
+      </c>
+      <c r="J121" t="n">
+        <v>10.694954</v>
+      </c>
+      <c r="K121" t="n">
+        <v>3.564984666666666</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>165068</v>
+      </c>
+      <c r="C122" t="n">
+        <v>78033</v>
+      </c>
+      <c r="D122" t="n">
+        <v>243101</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10.460991</v>
+      </c>
+      <c r="F122" t="n">
+        <v>15.01054</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5.003513333333333</v>
+      </c>
+      <c r="H122" t="n">
+        <v>77764.99999981806</v>
+      </c>
+      <c r="I122" t="n">
+        <v>242832.999999818</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.932661</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9775536666666667</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C123" t="n">
+        <v>99157</v>
+      </c>
+      <c r="D123" t="n">
+        <v>248743</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.807959</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15.014007</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5.004669</v>
+      </c>
+      <c r="H123" t="n">
+        <v>98487.00000014034</v>
+      </c>
+      <c r="I123" t="n">
+        <v>248073.0000001403</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5.220469</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1.740156333333333</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>149586</v>
+      </c>
+      <c r="C124" t="n">
+        <v>59563</v>
+      </c>
+      <c r="D124" t="n">
+        <v>209149</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.812007</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15.012883</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5.004294333333333</v>
+      </c>
+      <c r="H124" t="n">
+        <v>59538.00001320956</v>
+      </c>
+      <c r="I124" t="n">
+        <v>209124.0000132096</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4.659977</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1.553325666666667</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>117348</v>
+      </c>
+      <c r="D125" t="n">
+        <v>253471</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.161504</v>
+      </c>
+      <c r="F125" t="n">
+        <v>15.011706</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5.003902</v>
+      </c>
+      <c r="H125" t="n">
+        <v>117215.0000006418</v>
+      </c>
+      <c r="I125" t="n">
+        <v>253338.0000006418</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4.729354</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1.576451333333333</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C126" t="n">
+        <v>71505</v>
+      </c>
+      <c r="D126" t="n">
+        <v>207628</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.263764</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15.013277</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5.004425666666667</v>
+      </c>
+      <c r="H126" t="n">
+        <v>71311.99997593317</v>
+      </c>
+      <c r="I126" t="n">
+        <v>207434.9999759332</v>
+      </c>
+      <c r="J126" t="n">
+        <v>13.553244</v>
+      </c>
+      <c r="K126" t="n">
+        <v>4.517748</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C127" t="n">
+        <v>146286</v>
+      </c>
+      <c r="D127" t="n">
+        <v>279176</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.8198220000000001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15.015993</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5.005331</v>
+      </c>
+      <c r="H127" t="n">
+        <v>145433.0000004383</v>
+      </c>
+      <c r="I127" t="n">
+        <v>278323.0000004383</v>
+      </c>
+      <c r="J127" t="n">
+        <v>13.768233</v>
+      </c>
+      <c r="K127" t="n">
+        <v>4.589411</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C128" t="n">
+        <v>84885</v>
+      </c>
+      <c r="D128" t="n">
+        <v>217775</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.81408</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15.012329</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5.004109666666666</v>
+      </c>
+      <c r="H128" t="n">
+        <v>83273.00816494974</v>
+      </c>
+      <c r="I128" t="n">
+        <v>216163.0081649497</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6.766284</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2.255428</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C129" t="n">
+        <v>94760</v>
+      </c>
+      <c r="D129" t="n">
+        <v>197006</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.154314</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10.010732</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5.005366</v>
+      </c>
+      <c r="H129" t="n">
+        <v>92249.99999969749</v>
+      </c>
+      <c r="I129" t="n">
+        <v>194495.9999996975</v>
+      </c>
+      <c r="J129" t="n">
+        <v>6.762237</v>
+      </c>
+      <c r="K129" t="n">
+        <v>3.3811185</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C130" t="n">
+        <v>56921</v>
+      </c>
+      <c r="D130" t="n">
+        <v>159167</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.153862</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10.012815</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5.0064075</v>
+      </c>
+      <c r="H130" t="n">
+        <v>56002.00133349218</v>
+      </c>
+      <c r="I130" t="n">
+        <v>158248.0013334922</v>
+      </c>
+      <c r="J130" t="n">
+        <v>57.182176</v>
+      </c>
+      <c r="K130" t="n">
+        <v>28.591088</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C131" t="n">
+        <v>115552</v>
+      </c>
+      <c r="D131" t="n">
+        <v>203839</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.38808</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10.011631</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5.0058155</v>
+      </c>
+      <c r="H131" t="n">
+        <v>113313.0000001766</v>
+      </c>
+      <c r="I131" t="n">
+        <v>201600.0000001766</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.001536</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1.500768</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C132" t="n">
+        <v>69395</v>
+      </c>
+      <c r="D132" t="n">
+        <v>157682</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.387346</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10.009409</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.0047045</v>
+      </c>
+      <c r="H132" t="n">
+        <v>67324.0000043521</v>
+      </c>
+      <c r="I132" t="n">
+        <v>155611.0000043521</v>
+      </c>
+      <c r="J132" t="n">
+        <v>12.878551</v>
+      </c>
+      <c r="K132" t="n">
+        <v>6.4392755</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>25549</v>
+      </c>
+      <c r="C133" t="n">
+        <v>31644</v>
+      </c>
+      <c r="D133" t="n">
+        <v>57193</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.023782</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15.004446</v>
+      </c>
+      <c r="G133" t="n">
+        <v>5.001482</v>
+      </c>
+      <c r="H133" t="n">
+        <v>31644.00000002697</v>
+      </c>
+      <c r="I133" t="n">
+        <v>57193.00000002697</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.184787</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.06159566666666667</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>15497</v>
+      </c>
+      <c r="C134" t="n">
+        <v>26072</v>
+      </c>
+      <c r="D134" t="n">
+        <v>41569</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.010831</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10.003099</v>
+      </c>
+      <c r="G134" t="n">
+        <v>5.0015495</v>
+      </c>
+      <c r="H134" t="n">
+        <v>26072.0000000249</v>
+      </c>
+      <c r="I134" t="n">
+        <v>41569.0000000249</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.115836</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.057918</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>24196</v>
+      </c>
+      <c r="C135" t="n">
+        <v>24998</v>
+      </c>
+      <c r="D135" t="n">
+        <v>49194</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.054644</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15.004663</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5.001554333333334</v>
+      </c>
+      <c r="H135" t="n">
+        <v>24998.00000001794</v>
+      </c>
+      <c r="I135" t="n">
+        <v>49194.00000001794</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.149488</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.04982933333333334</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>21739</v>
+      </c>
+      <c r="C136" t="n">
+        <v>21280</v>
+      </c>
+      <c r="D136" t="n">
+        <v>43019</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.031466</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10.003388</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5.001694</v>
+      </c>
+      <c r="H136" t="n">
+        <v>21279.99999994634</v>
+      </c>
+      <c r="I136" t="n">
+        <v>43018.99999994633</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.119389</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.0596945</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>